--- a/PANW.xlsx
+++ b/PANW.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22567206-42D8-4589-9B5E-3E89CDF9E033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9073C11A-476C-4CF4-99C6-06588D385B18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{D6BBD05F-62CD-421B-9452-85A76ED932E1}"/>
+    <workbookView xWindow="225" yWindow="1950" windowWidth="38175" windowHeight="15240" xr2:uid="{D6BBD05F-62CD-421B-9452-85A76ED932E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -72,7 +72,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,12 +81,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -109,10 +114,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -450,77 +456,78 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G3" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="2">
         <v>171.05</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="3">
         <v>328.1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="3">
         <f>+H3*H4</f>
         <v>56121.505000000005</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G6" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="3">
         <f>2282.8+1108.2</f>
         <v>3391</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G7" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="3">
         <v>645.79999999999995</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G8" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="3">
         <f>+H5-H6+H7</f>
         <v>53376.305000000008</v>
       </c>
